--- a/DOM_Banner/output/dept_banner/Sharad Khurana_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Sharad Khurana_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ; MD Anderson Cancer Center, Houston, TX; Department of Medicine, University of Arizona, Tucson, AZ; Department of Medicine, Division of Hematology/Oncology, University of Arizona, Tucson, AZ; Medical University of South Carolina, Charleston, SC; Medical University of South Carolina, Charleston, SC; Department of Medicine, Division of Hematology/Oncology, University of Arizona, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4302774171</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Chimeric Antigen Receptor T-Cell (CAR T-Cell) Therapy for Primary and Secondary Central Nervous System Lymphoma: A Systematic Review of Literature</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Clinical Lymphoma, Myeloma &amp; Leukemia</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.clml.2022.09.008</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36328891</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.clml.2022.09.008</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4315618960</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Outcomes of Tyrosine Kinase Inhibitors Maintenance Therapy with or without Allogeneic Hematopoietic Stem Cell Transplantation in Philadelphia Chromosome Positive Acute Lymphoblastic Leukemia in First Complete Remission: A Systematic Review and Meta-Analysis</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Clinical Lymphoma, Myeloma &amp; Leukemia</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.clml.2023.01.002</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36682989</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.clml.2023.01.002</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319263251</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Role of Anakinra in the Management of Steroid Refractory High Grade Immune Effector Cell-Associated Neurotoxicity Syndrome after Anti-CD 19 CAR-T Cell Therapy, a Single Center Experience</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Transplantation and Cellular Therapy</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2666-6367(23)00257-9</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2666-6367(23)00257-9</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>From the Division of Hematology/Oncology, University of Arizona Cancer Center, Tucson (Khurana); Departments of Biomedical Statistics and Informatics (Heckman, Cochuyt), Mayo Clinic Arizona, Phoenix; Divisions of Hematopathology (Craig), Mayo Clinic Arizona, Phoenix; Departments of Biomedical Statistics and Informatics (Heckman, Cochuyt), Mayo Clinic Arizona, Phoenix; Divisions of Laboratory Genetics (Greipp), Mayo Clinic, Rochester, Minnesota; Division of Hematology and Medical Oncology, Sanford Roger Maris Cancer Center, Fargo, North Dakota (Rahman); Hematology and Medical Oncology (Sproat), Mayo Clinic Arizona, Phoenix; Hematology (Litzow), Mayo Clinic, Rochester, Minnesota; Division of Hematology and Medical Oncology (Foran), Mayo Clinic Arizona, Phoenix; Laboratory Medicine and Pathology (Jiang), Mayo Clinic Arizona, Phoenix</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385406334</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Evaluation of Novel Targets, Including CC-Chemokine Receptor 4, in Adult T-Cell Acute Lymphoblastic Leukemia/Lymphoma</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Archives of Pathology &amp; Laboratory Medicine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>American Medical Association</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.5858/arpa.2022-0482-oa</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37522711</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.5858/arpa.2022-0482-oa</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,80 +795,85 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dimitrios Filioglou, Muhammad Husnain, Sharad Khurana, Richard J. Simpson, Emmanuel Katsanis</t>
+          <t>Lindsay Rein, Firas El Chaer, Junichiro Yuda, Kazuya Shimoda, James McCloskey, Akiyoshi Takami, Tamanna Haque, Michiko Ichii, Shuichi Shirane, Masafumi Fukaya, Joseph M. Scandura, Terrence Bradley, Pankit Vachhani, Takayuki Tabayashi, Steve Green, Siu Yin Cheung, Prithviraj Bose, Sharad Khurana, Casey L. O’Connell, Idoroenyi Amanam, David M. Ross, Sujan Kabir, Masanori Seki, Mark Wade, Vishnu Peddagali, Z. Li, Jatin J. Shah, Raajit K. Rampal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388940751</t>
+          <t>1Duke University, Durham, NC; 2University of Virginia Health System, Charlottesville, VA; 3National Cancer Center Hospital East, Kashiwa, Japan; 4University of Miyazaki, Miyazaki, Japan; 5The John Theurer Cancer Center at Hackensack Meridian Health, Hackensack, NJ; 6Aichi Medical University School of Medicine, Nagakute, Japan; 7Memorial Sloan Kettering Cancer Center, New York, NY; 8Osaka University Graduate School of Medicine, Suita, Japan; 9Juntendo University School of Medicine, Bunkyo-ku, Japan; 10Shizuoka Cancer Center, Nagaizumi, Japan; 11Weill Cornell Medical College, New York, NY; 12University of Miami Sylvester Comprehensive Cancer Center, Miami, FL; 13University of Alabama at Birmingham, Birmingham, AL; 14Saitama Medical Center, Saitama Medical University, Kawagoe, Japan; 15Roswell Park Comprehensive Cancer Center, Buffalo, NY; 16ICON Cancer Care, Kurralta Park, Australia; 17MD Anderson Cancer Center, The University of Texas, Houston, TX; 18University of Arizona Cancer Center, Tucson, AZ; 19USC Norris Comprehensive Cancer Center, University of Southern California, Los Angeles, CA; 20City of Hope National Medical Center, Duarte, CA; 21Royal Adelaide Hospital, Adelaide, Australia; 22Sumitomo Pharma America, Inc., Boston, MA; 23Sumitomo Pharma Co., Ltd., Chuo-Ku, Japan; 22Sumitomo Pharma America, Inc., Boston, MA; 22Sumitomo Pharma America, Inc., Boston, MA; 22Sumitomo Pharma America, Inc., Boston, MA; 22Sumitomo Pharma America, Inc., Boston, MA; 7Memorial Sloan Kettering Cancer Center, New York, NY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Has the shortage of fludarabine altered the current paradigm of lymphodepletion in favor of bendamustine?</t>
+          <t>https://openalex.org/W4389232027</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-11-22</t>
+          <t>Phase 1/2 Study of TP-3654, a Selective PIM1 Kinase Inhibitor: Preliminary Data Showed Clinical Activity and Cytokine Reductions in Relapsed/Refractory Myelofibrosis Patients</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Frontiers in Immunology</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fimmu.2023.1329850</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1182/blood-2023-180164</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38077398</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fimmu.2023.1329850</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1182/blood-2023-180164</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,80 +882,85 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lindsay Rein, Firas El Chaer, Junichiro Yuda, Kazuya Shimoda, James McCloskey, Akiyoshi Takami, Tamanna Haque, Michiko Ichii, Shuichi Shirane, Masafumi Fukaya, Joseph M. Scandura, Terrence Bradley, Pankit Vachhani, Takayuki Tabayashi, Steve Green, Siu Yin Cheung, Prithviraj Bose, Sharad Khurana, Casey L. O’Connell, Idoroenyi Amanam, David M. Ross, Sujan Kabir, Masanori Seki, Mark Wade, Vishnu Peddagali, Z. Li, Jatin J. Shah, Raajit K. Rampal</t>
+          <t>Carissa M. Feliciano, Jennifer S. Carew, Hetty E. Carraway, Justin M. Watts, Sharad Khurana, Bhumika J. Patel, Keri Maher, Claudia M. Espitia, Kaijin Wu, Denice Tsao-Wie, Xuelian Chen, Mikkael A. Sekeres, Stan G. Louie, Homa Dadrastoussi, Eduardo B. Fernández, Julian Olea, Brandon Sookdeo, Steffan T. Nawrocki, George Yaghmour, Kevin R. Kelly</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389232027</t>
+          <t>1Keck School of Medicine, University of Southern California, Los Angeles, CA; 2Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ; 3Leukemia Program, Taussig Cancer Institute, Cleveland Clinic, Cleveland, OH; 4Sylvester Comprehensive Cancer Center, University of Miami Miller School of Medicine, MIAMI, FL; 5University of Arizona Cancer Center, Tucson, AZ; 6Hematology Oncology Program, Prisma Health, Greenville; 7Massey Cancer Center, Virginia Commonwealth University, Tucson, AZ; 2Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 9Norris Comprehensive Cancer Center, University of Southern California, Los Angeles, CA; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 10Sylvester Comprehensive Cancer Center, University of Miami, Miami, FL; 11Mann School of Pharmacy and Pharmaceutical Sciences, University of Southern California, Los Angeles, CA; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 12USC Norris Comprehensive Cancer Center, University of Southern California, Los Angeles, CA; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 2Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ; 9Norris Comprehensive Cancer Center, University of Southern California, Los Angeles, CA; 13Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Phase 1/2 Study of TP-3654, a Selective PIM1 Kinase Inhibitor: Preliminary Data Showed Clinical Activity and Cytokine Reductions in Relapsed/Refractory Myelofibrosis Patients</t>
+          <t>https://openalex.org/W4389247020</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Phase 1b/2 Study of Escalating Doses of the NEDD8 Activating Enzyme Inhibitor Pevonedistat Administered in Combination with Standard Induction Therapy (Cytarabine and Idarubicin) in Newly Diagnosed High Risk Acute Myeloid Leukemia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>2023-11-28</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1182/blood-2023-180164</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1182/blood-2023-185481</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1182/blood-2023-180164</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1182/blood-2023-185481</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,80 +969,85 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Carissa M. Feliciano, Jennifer S. Carew, Hetty E. Carraway, Justin M. Watts, Sharad Khurana, Bhumika J. Patel, Keri Maher, Claudia M. Espitia, Kaijin Wu, Denice Tsao-Wie, Xuelian Chen, Mikkael A. Sekeres, Stan G. Louie, Homa Dadrastoussi, Eduardo B. Fernández, Julian Olea, Brandon Sookdeo, Steffan T. Nawrocki, George Yaghmour, Kevin R. Kelly</t>
+          <t>Clinton Wu, Pete Manchen, Andrew S. Edelman, Muhammad Husnain, Emmanuel Katsanis, Deborah Fuchs, Laura Stephens, Sharad Khurana</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389247020</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Phase 1b/2 Study of Escalating Doses of the NEDD8 Activating Enzyme Inhibitor Pevonedistat Administered in Combination with Standard Induction Therapy (Cytarabine and Idarubicin) in Newly Diagnosed High Risk Acute Myeloid Leukemia</t>
+          <t>https://openalex.org/W4390340527</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>Refractory Pure Red Blood Cell Aplasia Secondary to Major ABO-Incompatible Allogeneic Stem Cell Transplantation Successfully Treated With Daratumumab</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Blood</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Journal of hematology</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1182/blood-2023-185481</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.14740/jh1195</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1182/blood-2023-185481</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38188476</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14740/jh1195</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1016,80 +1056,85 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Clinton Wu, Pete Manchen, Andrew S. Edelman, Muhammad Husnain, Emmanuel Katsanis, Deborah Fuchs, Laura Stephens, Sharad Khurana</t>
+          <t>Dimitrios Filioglou, Muhammad Husnain, Sharad Khurana, Richard J. Simpson, Emmanuel Katsanis</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390340527</t>
+          <t>Department of Pediatrics, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; The University of Arizona Cancer Center, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; The University of Arizona Cancer Center, Tucson, AZ, United States; Department of Immunobiology, University of Arizona, Tucson, AZ, United States; Department of Pediatrics, University of Arizona, Tucson, AZ, United States; School of Nutritional Sciences and Wellness, University of Arizona, Tucson, AZ, United States; Department of Immunobiology, University of Arizona, Tucson, AZ, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Pathology, University of Arizona, Tucson, AZ, United States; Department of Pediatrics, University of Arizona, Tucson, AZ, United States; The University of Arizona Cancer Center, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Refractory Pure Red Blood Cell Aplasia Secondary to Major ABO-Incompatible Allogeneic Stem Cell Transplantation Successfully Treated With Daratumumab</t>
+          <t>https://openalex.org/W4388940751</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>Has the shortage of fludarabine altered the current paradigm of lymphodepletion in favor of bendamustine?</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Journal of hematology</t>
+          <t>2023-11-22</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Frontiers in Immunology</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14740/jh1195</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>https://doi.org/10.3389/fimmu.2023.1329850</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>hybrid</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38188476</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14740/jh1195</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38077398</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3389/fimmu.2023.1329850</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
